--- a/database/industries/felezat/faira/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B00A46-3622-40E0-8940-211E35525772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,6 +61,9 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>شمش خالص</t>
   </si>
   <si>
@@ -73,9 +77,6 @@
   </si>
   <si>
     <t>شمش خالص صادراتی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -423,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,17 +644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -629,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -663,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -675,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -697,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -719,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -729,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -741,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -750,94 +785,94 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1507</v>
-      </c>
-      <c r="F11" s="11">
         <v>2771</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>1532</v>
+        <v>2493</v>
       </c>
       <c r="H11" s="11">
-        <v>2493</v>
+        <v>6132</v>
       </c>
       <c r="I11" s="11">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>27993</v>
-      </c>
-      <c r="F12" s="13">
         <v>28303</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>30810</v>
+        <v>18746</v>
       </c>
       <c r="H12" s="13">
-        <v>18746</v>
+        <v>22055</v>
       </c>
       <c r="I12" s="13">
-        <v>22055</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>29447</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>773</v>
-      </c>
-      <c r="F13" s="11">
         <v>39</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H13" s="11">
-        <v>49</v>
+        <v>1009</v>
       </c>
       <c r="I13" s="11">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>30273</v>
+        <v>31113</v>
       </c>
       <c r="F14" s="15">
-        <v>31113</v>
+        <v>0</v>
       </c>
       <c r="G14" s="15">
-        <v>32381</v>
+        <v>21288</v>
       </c>
       <c r="H14" s="15">
-        <v>21288</v>
+        <v>29196</v>
       </c>
       <c r="I14" s="15">
-        <v>29196</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32718</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -847,7 +882,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -856,92 +891,92 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
         <v>6969</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="11">
-        <v>3083</v>
+        <v>1374</v>
       </c>
       <c r="H16" s="11">
-        <v>1374</v>
+        <v>2257</v>
       </c>
       <c r="I16" s="11">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>8838</v>
-      </c>
-      <c r="F17" s="13">
         <v>4746</v>
       </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G17" s="13">
-        <v>1070</v>
+        <v>24565</v>
       </c>
       <c r="H17" s="13">
-        <v>24565</v>
+        <v>21976</v>
       </c>
       <c r="I17" s="13">
-        <v>21976</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11617</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>8838</v>
+        <v>11715</v>
       </c>
       <c r="F19" s="15">
-        <v>11715</v>
+        <v>0</v>
       </c>
       <c r="G19" s="15">
-        <v>4153</v>
+        <v>25939</v>
       </c>
       <c r="H19" s="15">
-        <v>25939</v>
+        <v>24233</v>
       </c>
       <c r="I19" s="15">
-        <v>24233</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11617</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
@@ -953,7 +988,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
@@ -984,32 +1019,32 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19">
-        <v>0</v>
+      <c r="E23" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23" s="19">
         <v>0</v>
@@ -1021,29 +1056,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>39111</v>
+        <v>42828</v>
       </c>
       <c r="F24" s="15">
-        <v>42828</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15">
-        <v>36534</v>
+        <v>47227</v>
       </c>
       <c r="H24" s="15">
-        <v>47227</v>
+        <v>53429</v>
       </c>
       <c r="I24" s="15">
-        <v>53429</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1053,7 +1088,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1063,7 +1098,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1073,7 +1108,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1105,7 +1140,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1152,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1126,92 +1161,92 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>939591</v>
-      </c>
-      <c r="F31" s="11">
         <v>2044225</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G31" s="11">
-        <v>1259315</v>
+        <v>2041465</v>
       </c>
       <c r="H31" s="11">
-        <v>2041465</v>
+        <v>4694483</v>
       </c>
       <c r="I31" s="11">
-        <v>4694483</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2438616</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>16420922</v>
-      </c>
-      <c r="F32" s="13">
         <v>18988179</v>
       </c>
+      <c r="F32" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G32" s="13">
-        <v>22545719</v>
+        <v>14383686</v>
       </c>
       <c r="H32" s="13">
-        <v>14383686</v>
+        <v>15676815</v>
       </c>
       <c r="I32" s="13">
-        <v>15676815</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21589321</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>457717</v>
-      </c>
-      <c r="F33" s="11">
         <v>33898</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="11">
-        <v>36142</v>
+        <v>55591</v>
       </c>
       <c r="H33" s="11">
-        <v>55591</v>
+        <v>811651</v>
       </c>
       <c r="I33" s="11">
-        <v>811651</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59278</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>17818230</v>
+        <v>21066302</v>
       </c>
       <c r="F34" s="15">
-        <v>21066302</v>
+        <v>0</v>
       </c>
       <c r="G34" s="15">
-        <v>23841176</v>
+        <v>16480742</v>
       </c>
       <c r="H34" s="15">
-        <v>16480742</v>
+        <v>21182949</v>
       </c>
       <c r="I34" s="15">
-        <v>21182949</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24087215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
@@ -1223,7 +1258,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1232,92 +1267,92 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11">
         <v>4628591</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="11">
-        <v>2853454</v>
+        <v>1296896</v>
       </c>
       <c r="H36" s="11">
-        <v>1296896</v>
+        <v>1890030</v>
       </c>
       <c r="I36" s="11">
-        <v>1890030</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>5587814</v>
-      </c>
-      <c r="F37" s="13">
         <v>3485080</v>
       </c>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="13">
-        <v>864468</v>
+        <v>18602785</v>
       </c>
       <c r="H37" s="13">
-        <v>18602785</v>
+        <v>16693701</v>
       </c>
       <c r="I37" s="13">
-        <v>16693701</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9121944</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>5587814</v>
+        <v>8113671</v>
       </c>
       <c r="F39" s="15">
-        <v>8113671</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15">
-        <v>3717922</v>
+        <v>19899681</v>
       </c>
       <c r="H39" s="15">
-        <v>19899681</v>
+        <v>18583731</v>
       </c>
       <c r="I39" s="15">
-        <v>18583731</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9121944</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>30</v>
       </c>
@@ -1329,7 +1364,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>22</v>
       </c>
@@ -1360,22 +1395,22 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>24</v>
       </c>
@@ -1383,11 +1418,11 @@
         <v>28</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="19">
-        <v>0</v>
+      <c r="E43" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
@@ -1399,29 +1434,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>23406044</v>
+        <v>29179973</v>
       </c>
       <c r="F44" s="15">
-        <v>29179973</v>
+        <v>0</v>
       </c>
       <c r="G44" s="15">
-        <v>27559098</v>
+        <v>36380423</v>
       </c>
       <c r="H44" s="15">
-        <v>36380423</v>
+        <v>39766680</v>
       </c>
       <c r="I44" s="15">
-        <v>39766680</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33209159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1431,7 +1466,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1441,7 +1476,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1451,7 +1486,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1483,7 +1518,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
@@ -1495,7 +1530,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1504,70 +1539,70 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>623484406</v>
+        <v>737721039</v>
       </c>
       <c r="F51" s="11">
-        <v>737721039</v>
+        <v>822007180</v>
       </c>
       <c r="G51" s="11">
-        <v>822007180</v>
+        <v>818878861</v>
       </c>
       <c r="H51" s="11">
-        <v>818878861</v>
+        <v>765571265</v>
       </c>
       <c r="I51" s="11">
-        <v>765571265</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>763021277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>586608152</v>
+        <v>670889270</v>
       </c>
       <c r="F52" s="13">
-        <v>670889270</v>
+        <v>731766277</v>
       </c>
       <c r="G52" s="13">
-        <v>731766277</v>
+        <v>767293609</v>
       </c>
       <c r="H52" s="13">
-        <v>767293609</v>
+        <v>710805486</v>
       </c>
       <c r="I52" s="13">
-        <v>710805486</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>733158590</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>592130660</v>
+        <v>869179487</v>
       </c>
       <c r="F53" s="11">
-        <v>869179487</v>
+        <v>926717949</v>
       </c>
       <c r="G53" s="11">
-        <v>926717949</v>
+        <v>1134510204</v>
       </c>
       <c r="H53" s="11">
-        <v>1134510204</v>
+        <v>804411298</v>
       </c>
       <c r="I53" s="11">
-        <v>804411298</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>790373333</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1614,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1588,70 +1623,70 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>529856164</v>
+        <v>664168604</v>
       </c>
       <c r="F55" s="11">
-        <v>664168604</v>
+        <v>925544599</v>
       </c>
       <c r="G55" s="11">
-        <v>925544599</v>
+        <v>943883552</v>
       </c>
       <c r="H55" s="11">
-        <v>943883552</v>
-      </c>
-      <c r="I55" s="11">
         <v>837408064</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>617731987</v>
+        <v>734319427</v>
       </c>
       <c r="F56" s="13">
-        <v>734319427</v>
+        <v>807914019</v>
       </c>
       <c r="G56" s="13">
-        <v>807914019</v>
+        <v>757288215</v>
       </c>
       <c r="H56" s="13">
-        <v>757288215</v>
+        <v>759633282</v>
       </c>
       <c r="I56" s="13">
-        <v>759633282</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>785223724</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1661,7 +1696,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1671,7 +1706,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1681,7 +1716,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>35</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1713,7 +1748,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>36</v>
       </c>
@@ -1725,7 +1760,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1734,92 +1769,92 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-677735</v>
+        <v>-1296198</v>
       </c>
       <c r="F64" s="11">
-        <v>-1296198</v>
+        <v>-785833</v>
       </c>
       <c r="G64" s="11">
-        <v>-785833</v>
+        <v>-1343190</v>
       </c>
       <c r="H64" s="11">
-        <v>-1343190</v>
+        <v>-4081177</v>
       </c>
       <c r="I64" s="11">
-        <v>-4081177</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2085198</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>-9739811</v>
+        <v>-13471350</v>
       </c>
       <c r="F65" s="13">
-        <v>-13471350</v>
+        <v>-14953969</v>
       </c>
       <c r="G65" s="13">
-        <v>-14953969</v>
+        <v>-9678971</v>
       </c>
       <c r="H65" s="13">
-        <v>-9678971</v>
+        <v>-13784951</v>
       </c>
       <c r="I65" s="13">
-        <v>-13784951</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-17916785</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>-175531</v>
+        <v>-17510</v>
       </c>
       <c r="F66" s="11">
-        <v>-17510</v>
+        <v>-19940</v>
       </c>
       <c r="G66" s="11">
-        <v>-19940</v>
+        <v>-28350</v>
       </c>
       <c r="H66" s="11">
-        <v>-28350</v>
+        <v>-662689</v>
       </c>
       <c r="I66" s="11">
-        <v>-662689</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-45470</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-10593077</v>
+        <v>-14785058</v>
       </c>
       <c r="F67" s="15">
-        <v>-14785058</v>
+        <v>-15759742</v>
       </c>
       <c r="G67" s="15">
-        <v>-15759742</v>
+        <v>-11050511</v>
       </c>
       <c r="H67" s="15">
-        <v>-11050511</v>
+        <v>-18528817</v>
       </c>
       <c r="I67" s="15">
-        <v>-18528817</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-20047453</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1866,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1840,92 +1875,92 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>491280</v>
+        <v>-3036383</v>
       </c>
       <c r="F69" s="11">
-        <v>-3036383</v>
+        <v>-1515067</v>
       </c>
       <c r="G69" s="11">
-        <v>-1515067</v>
+        <v>-740290</v>
       </c>
       <c r="H69" s="11">
-        <v>-740290</v>
+        <v>-1542994</v>
       </c>
       <c r="I69" s="11">
-        <v>-1542994</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-18126</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>-5487773</v>
+        <v>-2194890</v>
       </c>
       <c r="F70" s="13">
-        <v>-2194890</v>
+        <v>-1594568</v>
       </c>
       <c r="G70" s="13">
-        <v>-1594568</v>
+        <v>-12683355</v>
       </c>
       <c r="H70" s="13">
-        <v>-12683355</v>
+        <v>-14081727</v>
       </c>
       <c r="I70" s="13">
-        <v>-14081727</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-7494299</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-4996493</v>
+        <v>-5231273</v>
       </c>
       <c r="F72" s="15">
-        <v>-5231273</v>
+        <v>-3109635</v>
       </c>
       <c r="G72" s="15">
-        <v>-3109635</v>
+        <v>-13423645</v>
       </c>
       <c r="H72" s="15">
-        <v>-13423645</v>
+        <v>-15624721</v>
       </c>
       <c r="I72" s="15">
-        <v>-15624721</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-7512425</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>40</v>
       </c>
@@ -1937,7 +1972,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
@@ -1959,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>22</v>
       </c>
@@ -1968,22 +2003,22 @@
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>24</v>
       </c>
@@ -1991,11 +2026,11 @@
         <v>28</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" s="19">
-        <v>0</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>18</v>
+      <c r="E76" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="19">
+        <v>0</v>
       </c>
       <c r="G76" s="19">
         <v>0</v>
@@ -2007,29 +2042,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-15589570</v>
+        <v>-20016331</v>
       </c>
       <c r="F77" s="15">
-        <v>-20016331</v>
+        <v>-18869377</v>
       </c>
       <c r="G77" s="15">
-        <v>-18869377</v>
+        <v>-24474156</v>
       </c>
       <c r="H77" s="15">
-        <v>-24474156</v>
+        <v>-34153538</v>
       </c>
       <c r="I77" s="15">
-        <v>-34153538</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-27559878</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2039,7 +2074,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2049,7 +2084,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2059,7 +2094,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>42</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2091,7 +2126,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>43</v>
       </c>
@@ -2103,7 +2138,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2112,92 +2147,92 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>261856</v>
+        <v>748027</v>
       </c>
       <c r="F84" s="11">
-        <v>748027</v>
+        <v>473482</v>
       </c>
       <c r="G84" s="11">
-        <v>473482</v>
+        <v>698275</v>
       </c>
       <c r="H84" s="11">
-        <v>698275</v>
+        <v>613306</v>
       </c>
       <c r="I84" s="11">
-        <v>613306</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353418</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>6681111</v>
+        <v>5516829</v>
       </c>
       <c r="F85" s="13">
-        <v>5516829</v>
+        <v>7591750</v>
       </c>
       <c r="G85" s="13">
-        <v>7591750</v>
+        <v>4704715</v>
       </c>
       <c r="H85" s="13">
-        <v>4704715</v>
+        <v>1891864</v>
       </c>
       <c r="I85" s="13">
-        <v>1891864</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3672536</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>282186</v>
+        <v>16388</v>
       </c>
       <c r="F86" s="11">
-        <v>16388</v>
+        <v>16202</v>
       </c>
       <c r="G86" s="11">
-        <v>16202</v>
+        <v>27241</v>
       </c>
       <c r="H86" s="11">
-        <v>27241</v>
+        <v>148962</v>
       </c>
       <c r="I86" s="11">
-        <v>148962</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13808</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>7225153</v>
+        <v>6281244</v>
       </c>
       <c r="F87" s="15">
-        <v>6281244</v>
+        <v>8081434</v>
       </c>
       <c r="G87" s="15">
-        <v>8081434</v>
+        <v>5430231</v>
       </c>
       <c r="H87" s="15">
-        <v>5430231</v>
+        <v>2654132</v>
       </c>
       <c r="I87" s="15">
-        <v>2654132</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4039762</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>45</v>
       </c>
@@ -2209,7 +2244,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2218,92 +2253,92 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>-282310</v>
+        <v>1592208</v>
       </c>
       <c r="F89" s="11">
-        <v>1592208</v>
+        <v>1338387</v>
       </c>
       <c r="G89" s="11">
-        <v>1338387</v>
+        <v>556606</v>
       </c>
       <c r="H89" s="11">
-        <v>556606</v>
+        <v>347036</v>
       </c>
       <c r="I89" s="11">
-        <v>347036</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-18126</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>873631</v>
+        <v>1290190</v>
       </c>
       <c r="F90" s="13">
-        <v>1290190</v>
+        <v>-730100</v>
       </c>
       <c r="G90" s="13">
-        <v>-730100</v>
+        <v>5919430</v>
       </c>
       <c r="H90" s="13">
-        <v>5919430</v>
+        <v>2611974</v>
       </c>
       <c r="I90" s="13">
-        <v>2611974</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1627645</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>591321</v>
+        <v>2882398</v>
       </c>
       <c r="F92" s="15">
-        <v>2882398</v>
+        <v>608287</v>
       </c>
       <c r="G92" s="15">
-        <v>608287</v>
+        <v>6476036</v>
       </c>
       <c r="H92" s="15">
-        <v>6476036</v>
+        <v>2959010</v>
       </c>
       <c r="I92" s="15">
-        <v>2959010</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1609519</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>47</v>
       </c>
@@ -2315,7 +2350,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>48</v>
       </c>
@@ -2337,26 +2372,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>7816474</v>
+        <v>9163642</v>
       </c>
       <c r="F95" s="15">
-        <v>9163642</v>
+        <v>8689721</v>
       </c>
       <c r="G95" s="15">
-        <v>8689721</v>
+        <v>11906267</v>
       </c>
       <c r="H95" s="15">
-        <v>11906267</v>
+        <v>5613142</v>
       </c>
       <c r="I95" s="15">
-        <v>5613142</v>
+        <v>5649281</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/faira/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B00A46-3622-40E0-8940-211E35525772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45CFE40-FD8F-4141-97DD-9B761F7C3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -645,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -663,8 +678,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +695,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -687,8 +712,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -697,8 +727,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +744,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -721,8 +761,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -731,8 +776,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -753,8 +803,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -763,10 +828,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -775,104 +845,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>3915</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2656</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1615</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1109</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1507</v>
+      </c>
+      <c r="J11" s="11">
         <v>2771</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>2493</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>6132</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>3196</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>26305</v>
+      </c>
+      <c r="F12" s="13">
+        <v>15353</v>
+      </c>
+      <c r="G12" s="13">
+        <v>19709</v>
+      </c>
+      <c r="H12" s="13">
+        <v>17131</v>
+      </c>
+      <c r="I12" s="13">
+        <v>27993</v>
+      </c>
+      <c r="J12" s="13">
         <v>28303</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>18746</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>22055</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>29447</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>6933</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1616</v>
+      </c>
+      <c r="G13" s="11">
+        <v>395</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1094</v>
+      </c>
+      <c r="I13" s="11">
+        <v>773</v>
+      </c>
+      <c r="J13" s="11">
         <v>39</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>49</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>1009</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>37153</v>
+      </c>
+      <c r="F14" s="15">
+        <v>19625</v>
+      </c>
+      <c r="G14" s="15">
+        <v>21719</v>
+      </c>
+      <c r="H14" s="15">
+        <v>19334</v>
+      </c>
+      <c r="I14" s="15">
+        <v>30273</v>
+      </c>
+      <c r="J14" s="15">
         <v>31113</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
         <v>21288</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>29196</v>
       </c>
-      <c r="I14" s="15">
+      <c r="N14" s="15">
         <v>32718</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -881,104 +1016,169 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11">
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1460</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
         <v>6969</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="K16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11">
         <v>1374</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>2257</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="E17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13">
+        <v>15994</v>
+      </c>
+      <c r="G17" s="13">
+        <v>23381</v>
+      </c>
+      <c r="H17" s="13">
+        <v>26296</v>
+      </c>
+      <c r="I17" s="13">
+        <v>8838</v>
+      </c>
+      <c r="J17" s="13">
         <v>4746</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="13">
         <v>24565</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>21976</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N17" s="13">
         <v>11617</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>20800</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>20800</v>
+      </c>
+      <c r="F19" s="15">
+        <v>15994</v>
+      </c>
+      <c r="G19" s="15">
+        <v>23381</v>
+      </c>
+      <c r="H19" s="15">
+        <v>27756</v>
+      </c>
+      <c r="I19" s="15">
+        <v>8838</v>
+      </c>
+      <c r="J19" s="15">
         <v>11715</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
         <v>25939</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>24233</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>11617</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -987,10 +1187,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1009,76 +1214,136 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>13</v>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>13</v>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
       </c>
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
+      <c r="H23" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
+        <v>57953</v>
+      </c>
+      <c r="F24" s="15">
+        <v>35619</v>
+      </c>
+      <c r="G24" s="15">
+        <v>45100</v>
+      </c>
+      <c r="H24" s="15">
+        <v>47090</v>
+      </c>
+      <c r="I24" s="15">
+        <v>39111</v>
+      </c>
+      <c r="J24" s="15">
         <v>42828</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
         <v>47227</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>53429</v>
       </c>
-      <c r="I24" s="15">
+      <c r="N24" s="15">
         <v>44335</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1087,8 +1352,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,8 +1367,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1107,10 +1382,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1129,8 +1409,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1139,10 +1434,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1151,104 +1451,169 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>1445922</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1200115</v>
+      </c>
+      <c r="G31" s="11">
+        <v>853035</v>
+      </c>
+      <c r="H31" s="11">
+        <v>623338</v>
+      </c>
+      <c r="I31" s="11">
+        <v>939591</v>
+      </c>
+      <c r="J31" s="11">
         <v>2044225</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11">
         <v>2041465</v>
       </c>
-      <c r="H31" s="11">
+      <c r="M31" s="11">
         <v>4694483</v>
       </c>
-      <c r="I31" s="11">
+      <c r="N31" s="11">
         <v>2438616</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
+        <v>8838597</v>
+      </c>
+      <c r="F32" s="13">
+        <v>7103942</v>
+      </c>
+      <c r="G32" s="13">
+        <v>10064614</v>
+      </c>
+      <c r="H32" s="13">
+        <v>9019272</v>
+      </c>
+      <c r="I32" s="13">
+        <v>16420922</v>
+      </c>
+      <c r="J32" s="13">
         <v>18988179</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="K32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="13">
         <v>14383686</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>15676815</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N32" s="13">
         <v>21589321</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>2732271</v>
+      </c>
+      <c r="F33" s="11">
+        <v>775203</v>
+      </c>
+      <c r="G33" s="11">
+        <v>209768</v>
+      </c>
+      <c r="H33" s="11">
+        <v>644786</v>
+      </c>
+      <c r="I33" s="11">
+        <v>457717</v>
+      </c>
+      <c r="J33" s="11">
         <v>33898</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
         <v>55591</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>811651</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>59278</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>13016790</v>
+      </c>
+      <c r="F34" s="15">
+        <v>9079260</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11127417</v>
+      </c>
+      <c r="H34" s="15">
+        <v>10287396</v>
+      </c>
+      <c r="I34" s="15">
+        <v>17818230</v>
+      </c>
+      <c r="J34" s="15">
         <v>21066302</v>
       </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
         <v>16480742</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>21182949</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>24087215</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1257,104 +1622,169 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11">
+      <c r="E36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="11">
+        <v>773590</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
         <v>4628591</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
         <v>1296896</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>1890030</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13">
+      <c r="E37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="13">
+        <v>8017595</v>
+      </c>
+      <c r="G37" s="13">
+        <v>11605558</v>
+      </c>
+      <c r="H37" s="13">
+        <v>13486805</v>
+      </c>
+      <c r="I37" s="13">
+        <v>5587814</v>
+      </c>
+      <c r="J37" s="13">
         <v>3485080</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="13">
         <v>18602785</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>16693701</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>9121944</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11">
+        <v>6843812</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>6843812</v>
+      </c>
+      <c r="F39" s="15">
+        <v>8017595</v>
+      </c>
+      <c r="G39" s="15">
+        <v>11605558</v>
+      </c>
+      <c r="H39" s="15">
+        <v>14260395</v>
+      </c>
+      <c r="I39" s="15">
+        <v>5587814</v>
+      </c>
+      <c r="J39" s="15">
         <v>8113671</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
         <v>19899681</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>18583731</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>9121944</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1363,10 +1793,15 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1385,78 +1820,138 @@
       <c r="I41" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>0</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>13</v>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
+      <c r="H43" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>19860602</v>
+      </c>
+      <c r="F44" s="15">
+        <v>17096855</v>
+      </c>
+      <c r="G44" s="15">
+        <v>22732975</v>
+      </c>
+      <c r="H44" s="15">
+        <v>24547791</v>
+      </c>
+      <c r="I44" s="15">
+        <v>23406044</v>
+      </c>
+      <c r="J44" s="15">
         <v>29179973</v>
       </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
         <v>36380423</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>39766680</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>33209159</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1465,8 +1960,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1475,8 +1975,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1485,10 +1990,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1507,8 +2017,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1517,10 +2042,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1529,82 +2059,132 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>369328736</v>
+      </c>
+      <c r="F51" s="11">
+        <v>451850527</v>
+      </c>
+      <c r="G51" s="11">
+        <v>528195046</v>
+      </c>
+      <c r="H51" s="11">
+        <v>562072137</v>
+      </c>
+      <c r="I51" s="11">
+        <v>623484406</v>
+      </c>
+      <c r="J51" s="11">
         <v>737721039</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>822007180</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>818878861</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>765571265</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>763021277</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
+        <v>336004448</v>
+      </c>
+      <c r="F52" s="13">
+        <v>462707093</v>
+      </c>
+      <c r="G52" s="13">
+        <v>510660815</v>
+      </c>
+      <c r="H52" s="13">
+        <v>526488354</v>
+      </c>
+      <c r="I52" s="13">
+        <v>586608152</v>
+      </c>
+      <c r="J52" s="13">
         <v>670889270</v>
       </c>
-      <c r="F52" s="13">
+      <c r="K52" s="13">
         <v>731766277</v>
       </c>
-      <c r="G52" s="13">
+      <c r="L52" s="13">
         <v>767293609</v>
       </c>
-      <c r="H52" s="13">
+      <c r="M52" s="13">
         <v>710805486</v>
       </c>
-      <c r="I52" s="13">
+      <c r="N52" s="13">
         <v>733158590</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>394096495</v>
+      </c>
+      <c r="F53" s="11">
+        <v>479704827</v>
+      </c>
+      <c r="G53" s="11">
+        <v>531058228</v>
+      </c>
+      <c r="H53" s="11">
+        <v>589383912</v>
+      </c>
+      <c r="I53" s="11">
+        <v>592130660</v>
+      </c>
+      <c r="J53" s="11">
         <v>869179487</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>926717949</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>1134510204</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>804411298</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>790373333</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1613,80 +2193,130 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11">
+      <c r="E55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="11">
+        <v>529856164</v>
+      </c>
+      <c r="I55" s="11">
+        <v>529856164</v>
+      </c>
+      <c r="J55" s="11">
         <v>664168604</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>925544599</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>943883552</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>837408064</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13">
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13">
+        <v>501287670</v>
+      </c>
+      <c r="G56" s="13">
+        <v>496367050</v>
+      </c>
+      <c r="H56" s="13">
+        <v>512884279</v>
+      </c>
+      <c r="I56" s="13">
+        <v>617731987</v>
+      </c>
+      <c r="J56" s="13">
         <v>734319427</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>807914019</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>757288215</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>759633282</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>785223724</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
+      <c r="E57" s="11">
+        <v>329029423</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1695,8 +2325,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1705,8 +2340,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1715,10 +2355,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1737,8 +2382,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1747,10 +2407,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1759,104 +2424,169 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>-828448</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-1019868</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-341794</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-373206</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-677735</v>
+      </c>
+      <c r="J64" s="11">
         <v>-1296198</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>-785833</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>-1343190</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>-4081177</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>-2085198</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>-5671683</v>
+      </c>
+      <c r="F65" s="13">
+        <v>-4918611</v>
+      </c>
+      <c r="G65" s="13">
+        <v>-5755450</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-5540610</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-9739811</v>
+      </c>
+      <c r="J65" s="13">
         <v>-13471350</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>-14953969</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>-9678971</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>-13784951</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>-17916785</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>-1430260</v>
+      </c>
+      <c r="F66" s="11">
+        <v>-539997</v>
+      </c>
+      <c r="G66" s="11">
+        <v>-147279</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-213484</v>
+      </c>
+      <c r="I66" s="11">
+        <v>-175531</v>
+      </c>
+      <c r="J66" s="11">
         <v>-17510</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>-19940</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>-28350</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>-662689</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>-45470</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>-7930391</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-6478476</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-6244523</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-6127300</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-10593077</v>
+      </c>
+      <c r="J67" s="15">
         <v>-14785058</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K67" s="15">
         <v>-15759742</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L67" s="15">
         <v>-11050511</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M67" s="15">
         <v>-18528817</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N67" s="15">
         <v>-20047453</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1865,104 +2595,169 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
+      <c r="E69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-491280</v>
+      </c>
+      <c r="I69" s="11">
+        <v>491280</v>
+      </c>
+      <c r="J69" s="11">
         <v>-3036383</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>-1515067</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>-740290</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>-1542994</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>-18126</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13">
+      <c r="E70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="13">
+        <v>-9255044</v>
+      </c>
+      <c r="G70" s="13">
+        <v>-6433648</v>
+      </c>
+      <c r="H70" s="13">
+        <v>-8504830</v>
+      </c>
+      <c r="I70" s="13">
+        <v>-5487773</v>
+      </c>
+      <c r="J70" s="13">
         <v>-2194890</v>
       </c>
-      <c r="F70" s="13">
+      <c r="K70" s="13">
         <v>-1594568</v>
       </c>
-      <c r="G70" s="13">
+      <c r="L70" s="13">
         <v>-12683355</v>
       </c>
-      <c r="H70" s="13">
+      <c r="M70" s="13">
         <v>-14081727</v>
       </c>
-      <c r="I70" s="13">
+      <c r="N70" s="13">
         <v>-7494299</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>-4303316</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>-4303316</v>
+      </c>
+      <c r="F72" s="15">
+        <v>-9255044</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-6433648</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-8996110</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-4996493</v>
+      </c>
+      <c r="J72" s="15">
         <v>-5231273</v>
       </c>
-      <c r="F72" s="15">
+      <c r="K72" s="15">
         <v>-3109635</v>
       </c>
-      <c r="G72" s="15">
+      <c r="L72" s="15">
         <v>-13423645</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>-15624721</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>-7512425</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1971,10 +2766,15 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -1993,41 +2793,71 @@
       <c r="I74" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>13</v>
+      <c r="E76" s="19">
+        <v>0</v>
       </c>
       <c r="F76" s="19">
         <v>0</v>
@@ -2035,36 +2865,66 @@
       <c r="G76" s="19">
         <v>0</v>
       </c>
-      <c r="H76" s="19">
-        <v>0</v>
+      <c r="H76" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>-12233707</v>
+      </c>
+      <c r="F77" s="15">
+        <v>-15733520</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-12678171</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-15123410</v>
+      </c>
+      <c r="I77" s="15">
+        <v>-15589570</v>
+      </c>
+      <c r="J77" s="15">
         <v>-20016331</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>-18869377</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>-24474156</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>-34153538</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>-27559878</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2073,8 +2933,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2083,8 +2948,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2093,10 +2963,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2115,8 +2990,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2125,10 +3015,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2137,104 +3032,169 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>617474</v>
+      </c>
+      <c r="F84" s="11">
+        <v>180247</v>
+      </c>
+      <c r="G84" s="11">
+        <v>511241</v>
+      </c>
+      <c r="H84" s="11">
+        <v>250132</v>
+      </c>
+      <c r="I84" s="11">
+        <v>261856</v>
+      </c>
+      <c r="J84" s="11">
         <v>748027</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>473482</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>698275</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>613306</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>353418</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>3166914</v>
+      </c>
+      <c r="F85" s="13">
+        <v>2185331</v>
+      </c>
+      <c r="G85" s="13">
+        <v>4309164</v>
+      </c>
+      <c r="H85" s="13">
+        <v>3478662</v>
+      </c>
+      <c r="I85" s="13">
+        <v>6681111</v>
+      </c>
+      <c r="J85" s="13">
         <v>5516829</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>7591750</v>
       </c>
-      <c r="G85" s="13">
+      <c r="L85" s="13">
         <v>4704715</v>
       </c>
-      <c r="H85" s="13">
+      <c r="M85" s="13">
         <v>1891864</v>
       </c>
-      <c r="I85" s="13">
+      <c r="N85" s="13">
         <v>3672536</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>1302011</v>
+      </c>
+      <c r="F86" s="11">
+        <v>235206</v>
+      </c>
+      <c r="G86" s="11">
+        <v>62489</v>
+      </c>
+      <c r="H86" s="11">
+        <v>431302</v>
+      </c>
+      <c r="I86" s="11">
+        <v>282186</v>
+      </c>
+      <c r="J86" s="11">
         <v>16388</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>16202</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>27241</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>148962</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>13808</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>5086399</v>
+      </c>
+      <c r="F87" s="15">
+        <v>2600784</v>
+      </c>
+      <c r="G87" s="15">
+        <v>4882894</v>
+      </c>
+      <c r="H87" s="15">
+        <v>4160096</v>
+      </c>
+      <c r="I87" s="15">
+        <v>7225153</v>
+      </c>
+      <c r="J87" s="15">
         <v>6281244</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>8081434</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>5430231</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>2654132</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>4039762</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2243,104 +3203,169 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11">
+      <c r="E89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11">
+        <v>282310</v>
+      </c>
+      <c r="I89" s="11">
+        <v>-282310</v>
+      </c>
+      <c r="J89" s="11">
         <v>1592208</v>
       </c>
-      <c r="F89" s="11">
+      <c r="K89" s="11">
         <v>1338387</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>556606</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>347036</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>-18126</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13">
+      <c r="E90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="13">
+        <v>6574289</v>
+      </c>
+      <c r="G90" s="13">
+        <v>5171910</v>
+      </c>
+      <c r="H90" s="13">
+        <v>4981975</v>
+      </c>
+      <c r="I90" s="13">
+        <v>873631</v>
+      </c>
+      <c r="J90" s="13">
         <v>1290190</v>
       </c>
-      <c r="F90" s="13">
+      <c r="K90" s="13">
         <v>-730100</v>
       </c>
-      <c r="G90" s="13">
+      <c r="L90" s="13">
         <v>5919430</v>
       </c>
-      <c r="H90" s="13">
+      <c r="M90" s="13">
         <v>2611974</v>
       </c>
-      <c r="I90" s="13">
+      <c r="N90" s="13">
         <v>1627645</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>13</v>
+      <c r="E91" s="11">
+        <v>2540496</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>2540496</v>
+      </c>
+      <c r="F92" s="15">
+        <v>6574289</v>
+      </c>
+      <c r="G92" s="15">
+        <v>5171910</v>
+      </c>
+      <c r="H92" s="15">
+        <v>5264285</v>
+      </c>
+      <c r="I92" s="15">
+        <v>591321</v>
+      </c>
+      <c r="J92" s="15">
         <v>2882398</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>608287</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>6476036</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>2959010</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>1609519</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2349,10 +3374,15 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -2371,26 +3401,56 @@
       <c r="I94" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+      <c r="N94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>7626895</v>
+      </c>
+      <c r="F95" s="15">
+        <v>9175073</v>
+      </c>
+      <c r="G95" s="15">
+        <v>10054804</v>
+      </c>
+      <c r="H95" s="15">
+        <v>9424381</v>
+      </c>
+      <c r="I95" s="15">
+        <v>7816474</v>
+      </c>
+      <c r="J95" s="15">
         <v>9163642</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>8689721</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>11906267</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>5613142</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>5649281</v>
       </c>
     </row>

--- a/database/industries/felezat/faira/product/quarterly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45CFE40-FD8F-4141-97DD-9B761F7C3A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4F3692-2107-41F7-8A5C-53A2EC0FCEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -890,7 +890,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -929,7 +929,7 @@
         <v>29447</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>32718</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>11617</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>11617</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>44335</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>2438616</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>21589321</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>59278</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>24087215</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>9121944</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>9121944</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>26</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>27</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>30</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>33209159</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1981,7 +1981,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1996,7 +1996,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>36</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2048,7 +2048,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>37</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>763021277</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>733158590</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>790373333</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>785223724</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>23</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2331,7 +2331,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2346,7 +2346,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2361,7 +2361,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>40</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2413,7 +2413,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>-2085198</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>-17916785</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>-45470</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>42</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>-20047453</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>43</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>-18126</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>-7494299</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>44</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>-7512425</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>45</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>46</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>27</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>29</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>30</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>-27559878</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2954,7 +2954,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2969,7 +2969,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>47</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3021,7 +3021,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>48</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>353418</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>3672536</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>13808</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>49</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>4039762</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>50</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-18126</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>1627645</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>23</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>51</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1609519</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>52</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>53</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>30</v>
       </c>
